--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -575,7 +575,7 @@
         <v>45217</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45156.51152777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>45530.6829050926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44341.91210648148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>45000</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45637.60655092593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45799</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>44240</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44506</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44692</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>45008</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>45000</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45135</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45160.50649305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44644</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45196</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45008</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45761</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>45769.59717592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>45889.55650462963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>44879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>45259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45362</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>45722</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>45649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>45866.60317129629</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45317</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44719</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45274.59327546296</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>45247</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>45685</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>44250</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>44250</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>44446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>44506</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>44285</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44544.86368055556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44552</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44285</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>44506</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>44370.85549768519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>44400</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44377</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44573</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44573.46288194445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44470</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44601</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>44327</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44316</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44501.48246527778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44392.69578703704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>44327</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>44313</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>44862.736875</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>44377</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>44392.70053240741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>44285</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44241</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>44361.44</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>44361</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>44377</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>44722</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>44470</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44295</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44389</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44459</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44837.66451388889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44563</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44506</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44506</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44506</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44573</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44791.66712962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44802</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44802.52940972222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>44731.56203703704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>44525</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44621.57050925926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>44438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44318</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>44270.6653125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>44270</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>44470</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>44463</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>44802.52351851852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>44285</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>44830.53532407407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>44369</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>44333.82861111111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>44593.60039351852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>44361</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>44725</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>44484.82210648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>44344</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>44817</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>44862</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>44395</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>44378.75256944444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>44386.3971875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44242</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>44292</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>44506</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>44327</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8319,7 +8319,7 @@
         <v>44327</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>44417</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         <v>44470</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>44487</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>44319</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>44318</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>44725</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         <v>45273</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>45739</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>45488.48725694444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>45293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44890</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>44382</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44999.39836805555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44490</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>45649</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>45208</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44954</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>45159.85258101852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>45261.38917824074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>45005.5162037037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>45755</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>45265.66866898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45102</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>45355.39510416667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>45686.8584375</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>44997.45451388889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>44606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>44544.86215277778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>44526.45810185185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45371.45964120371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>45579.62533564815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45506.41831018519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>45506.43997685185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>45728.56789351852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>44496.59633101852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>45469.75761574074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>45085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>45209</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>45210</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44514.44543981482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>45580.56090277778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45384.90856481482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>45522</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>45659.70703703703</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44887</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>45280.46763888889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>45637</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44799.68061342592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>45168.44300925926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>45425.25521990741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>45425.28621527777</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45568.58287037037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44792</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>45744.58045138889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>44739</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>45145.62370370371</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45515</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>45805.58758101852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45300.3849537037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45162.49694444444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45805.58908564815</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>44872</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>45433.67465277778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44306.52166666667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45889.5378587963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45593.58693287037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44862</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>45446.79673611111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45645.6778125</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>45645.68386574074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>45889.54530092593</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>45889.46177083333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>45516.4722800926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>45324</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>45753.56577546296</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>45890</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>45002.36559027778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44627.36609953704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44508</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>45891</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45895.64790509259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>45895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>45895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44552.73019675926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>45895</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>45713.6675</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>45901.52666666666</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>45211</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>45355.66673611111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45544.52680555556</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45819.52787037037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45820</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45820.65557870371</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44318</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45903.54369212963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45902.57</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45677.46724537037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45903.54355324074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45621.59472222222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45621.59979166667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45824.47145833333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45824.36542824074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>45252.8665625</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>45196.44100694444</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>45905.44967592593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>45905.46538194444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>45824</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>45659.6991087963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>45908.58668981482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44579.50421296297</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>45915.47401620371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44939</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>45041.628125</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>45747.4102199074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>45271.53695601852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>45350.42491898148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>45922</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>45923.34297453704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>45922</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>45922.34298611111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>45155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>45922.34819444444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>45629.65530092592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>45764</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>45925.59826388889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45246.4997337963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>45154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>45681.37034722222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45929.6434375</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15972,7 +15972,7 @@
         <v>45927</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         <v>45552.32608796296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>45834.38971064815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>45926.33585648148</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         <v>45834.47128472223</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16257,7 +16257,7 @@
         <v>45926.3371412037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16314,7 +16314,7 @@
         <v>45929.6240625</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16371,7 +16371,7 @@
         <v>45926.33401620371</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16428,7 +16428,7 @@
         <v>45929</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45596.6846875</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45929.61418981481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45838</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45929.76333333334</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>45837</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>45839.40396990741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>45933.55741898148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>45932.61694444445</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>45839</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45839.40773148148</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45936.44983796297</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>45935</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>45935</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>45490.46703703704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44839.62133101852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45937.34498842592</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45842.47947916666</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45820.41474537037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45170</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45842.53192129629</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45942</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45943.5865162037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45842.54001157408</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45842.55113425926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45673</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45390.46651620371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45945.53465277778</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45947.58571759259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45946.8708449074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>45946.59853009259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>45946.42431712963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>45387.48319444444</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>45597</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45168.68554398148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>45951.53068287037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45951.53512731481</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45951.55111111111</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>45951.56857638889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>45635.60556712963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>45522</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>45949</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>45951.55238425926</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>45673.37917824074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>45951.52353009259</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>45951.53870370371</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>45635.61482638889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45952.55336805555</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>44585</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45698.31922453704</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45334.63966435185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>45104.35747685185</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45106</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45872</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45872</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45954.35903935185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45954.36815972222</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44469</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45958.63921296296</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45872</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45874.44050925926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>45873.53761574074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45874.44613425926</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45286</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>45874.40502314815</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>45196.55233796296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>45709.47435185185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>45728.5480787037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>45660</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45880.47754629629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45880.47399305556</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45880.47231481481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45321.55988425926</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45534</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45971.48189814815</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45972.56716435185</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45174</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45757.57973379629</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45972.86952546296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45973.66542824074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44522</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45972.88298611111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45184</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45887.46581018518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45974.43372685185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>45026</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>45978.63587962963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>44946</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>45980.57719907408</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44572.38181712963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>45985.37597222222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>45982.3900462963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45985.63699074074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45369.35518518519</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45630.5583912037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45987.30810185185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>46027.62056712963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>46027.63243055555</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>45538.54412037037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>45987.46575231481</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>45987.46042824074</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>45196</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44925</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>45739.80998842593</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>46029</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>45273.460625</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>46029</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>46029.58729166666</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>46029.56256944445</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44846</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>46031.64695601852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>46034.60543981481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>45544.52134259259</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>46034.59936342593</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45454.66947916667</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45454.67317129629</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45311</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45048</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>45698</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45722</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>45719.63101851852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44900.31049768518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>46037.47726851852</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44327</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44807.62668981482</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>46038.56106481481</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>46038.5577662037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44944</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>45756.39622685185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>45303.58416666667</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>45303.60452546296</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>45595</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>45673</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>45061</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44467.68811342592</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>45469.40561342592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>46038.60314814815</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>45267</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>45061</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24557,7 +24557,7 @@
         <v>45999.49892361111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24614,7 +24614,7 @@
         <v>46039.53040509259</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24671,7 +24671,7 @@
         <v>45265.66319444445</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>45085</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>45268.58481481481</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>46000.54090277778</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44538.58373842593</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>46042.67767361111</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>46000.66969907407</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>46000.55739583333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45566.5515625</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>45036.35840277778</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>46044.70083333334</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>46044.70748842593</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>46044.71488425926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>45281</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>45303</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>45303.60302083333</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>45599</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>46044.53601851852</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>46044.72129629629</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>44292</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>45635.59540509259</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>46044.5521875</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         <v>45400.65037037037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25982,7 +25982,7 @@
         <v>46003.45106481481</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26039,7 +26039,7 @@
         <v>46044.55604166666</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26096,7 +26096,7 @@
         <v>46044.69506944445</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26153,7 +26153,7 @@
         <v>46044.5205324074</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26210,7 +26210,7 @@
         <v>44285.35993055555</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26267,7 +26267,7 @@
         <v>45523</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26324,7 +26324,7 @@
         <v>45181.73866898148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45190</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44285</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45272</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>46008.68878472222</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>46008.82458333333</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45673.38386574074</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45237.33038194444</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44929.69923611111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45015.70453703704</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45655.43255787037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45621.59697916666</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>44585.64229166666</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>46011.50260416666</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45236.52512731482</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>45236.5352199074</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>46013.34810185185</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>46013.34900462963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>45761.42684027777</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>44719.98341435185</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>45387.47238425926</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44830</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44725.42993055555</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>45603.46233796296</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44544.79592592592</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>46058.36825231482</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44972.69076388889</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44969</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>45273.5737962963</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>45374.72565972222</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>45525.63168981481</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45030</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>45355.51329861111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>45102</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>45023</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>45197</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44573</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44441</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>45279</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44858.52567129629</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>44438</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44460</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45772.50458333334</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45026</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45239</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>44799.45141203704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>45597</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>45267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>45400.83571759259</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>45722</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44872</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>45075.56796296296</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44832</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>45260.62027777778</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29603,7 +29603,7 @@
         <v>44908</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>45384.91399305555</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29717,7 +29717,7 @@
         <v>45469.76627314815</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44418</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44434</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44434</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>45570.45927083334</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>45272.47856481482</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44601</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>45575.45644675926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44591.90067129629</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>45309.44375</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45387.48722222223</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30349,7 +30349,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>45259.35402777778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>45278</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>45628.87296296296</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>45628.87668981482</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>45659.69072916666</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         <v>44817</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30748,7 +30748,7 @@
         <v>45271.4730787037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30805,7 +30805,7 @@
         <v>44890</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44651.87236111111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>45035</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>45596.67886574074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>45635.59962962963</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>45463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>45450.60342592592</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44293.554375</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44841.49253472222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>45531</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44455</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>45538.70457175926</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>45231</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>45392.47069444445</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44306</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45155</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>45063</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44378.73386574074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>45544.57728009259</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44908</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>45440</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32012,7 +32012,7 @@
         <v>44698</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32069,7 +32069,7 @@
         <v>45154</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32126,7 +32126,7 @@
         <v>45716.47998842593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>45741.69476851852</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32240,7 +32240,7 @@
         <v>44439.36196759259</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44964</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44573.62219907407</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>45621.60280092592</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44879</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>45170</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>45692.6357175926</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44613</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44613</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44897.47668981482</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>45209.64253472222</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>45168.69461805555</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>45153</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>45371.46417824074</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>45168.7025462963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>45571</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44834.43748842592</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44488</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>45522</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44490.46706018518</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>45754.37994212963</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>45754.38363425926</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>45415.58402777778</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>45777.54398148148</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45589.57429398148</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45748.4649074074</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45785.60768518518</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45072</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>45789.48394675926</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45789.4871412037</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>45726.70016203704</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>45719.5325</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>45791.36958333333</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>45737.50302083333</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>45791.40295138889</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34235,7 +34235,7 @@
         <v>45737.54762731482</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>45743.58711805556</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>45716</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>45362</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>45551.64898148148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>44879</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>45301</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>45084</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>45743.47871527778</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>45728.52953703704</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>45392.48451388889</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -575,7 +575,7 @@
         <v>45217</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45156.51152777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>45530.6829050926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44341.91210648148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>45000</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45637.60655092593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45799</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>44240</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44506</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44692</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>45008</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>45000</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>45135</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>45160.50649305555</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44644</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45196</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>45008</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>45761</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44361</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>44511</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>45769.59717592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>45889.55650462963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>44879</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         <v>45259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>45362</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>45722</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>45649</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>45866.60317129629</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45713</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45317</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44719</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>45274.59327546296</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>45247</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>45685</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         <v>44250</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>44250</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>44446</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44462</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>44506</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>44285</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44544.86368055556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44552</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44285</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>44506</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>44370.85549768519</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>44400</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>44377</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44573</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>44573.46288194445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>44470</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>44601</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>44327</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44596</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>44573</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>44316</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>44501.48246527778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>44392.69578703704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>44327</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>44313</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>44862.736875</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>44377</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>44392.70053240741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>44285</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>44241</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>44361.44</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>44361</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>44377</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>44722</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>44470</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>44395</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>44295</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44389</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44459</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44837.66451388889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>44735</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>44563</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44506</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6262,7 +6262,7 @@
         <v>44506</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>44506</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>44573</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6433,7 +6433,7 @@
         <v>44791.66712962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         <v>44802</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44802.52940972222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>44731.56203703704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
         <v>44525</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>44621.57050925926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6775,7 +6775,7 @@
         <v>44438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44318</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>44270.6653125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         <v>44270</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         <v>44470</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
         <v>44463</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7179,7 +7179,7 @@
         <v>44802.52351851852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7236,7 +7236,7 @@
         <v>44285</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7293,7 +7293,7 @@
         <v>44830.53532407407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>44369</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>44333.82861111111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>44593.60039351852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>44417</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>44361</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>44725</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>44484.82210648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>44344</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>44817</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>44862</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>44395</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>44378.75256944444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>44386.3971875</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44242</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>44292</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>44506</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>44327</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8319,7 +8319,7 @@
         <v>44327</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>44417</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         <v>44470</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>44487</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>44319</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>44318</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>44725</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         <v>45273</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>45739</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>45488.48725694444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>45293</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>44890</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>44382</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44999.39836805555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44490</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>45649</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>45208</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44954</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>45159.85258101852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>45261.38917824074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>45005.5162037037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>45755</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
         <v>45265.66866898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45102</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>45355.39510416667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>45686.8584375</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>44997.45451388889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>44606</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>44544.86215277778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>44526.45810185185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45371.45964120371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>45579.62533564815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45506.41831018519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>45506.43997685185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>45728.56789351852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>44496.59633101852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>45469.75761574074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10428,7 +10428,7 @@
         <v>45085</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         <v>45209</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>45210</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44514.44543981482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>45580.56090277778</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>45384.90856481482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>45522</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10827,7 +10827,7 @@
         <v>45659.70703703703</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44887</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>45280.46763888889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>45637</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44799.68061342592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>45168.44300925926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>45425.25521990741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>45425.28621527777</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>45568.58287037037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44792</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>45744.58045138889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>44739</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>45145.62370370371</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45515</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11635,7 +11635,7 @@
         <v>45805.58758101852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11692,7 +11692,7 @@
         <v>45300.3849537037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>45162.49694444444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11806,7 +11806,7 @@
         <v>45805.58908564815</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>44872</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>45433.67465277778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44306.52166666667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>45889.5378587963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>45593.58693287037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44862</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>45446.79673611111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>45645.6778125</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>45645.68386574074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>45889.54530092593</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>45889.46177083333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>45516.4722800926</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>45324</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>45753.56577546296</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>45890</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>45002.36559027778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44627.36609953704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44508</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>45891</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45895.64790509259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45239</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>45895</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>45895</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44552.73019675926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>45895</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>45713.6675</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>45901.52666666666</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>45211</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>45355.66673611111</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45544.52680555556</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45819.52787037037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>45187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>45820</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13801,7 +13801,7 @@
         <v>45820.65557870371</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
         <v>44318</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         <v>45903.54369212963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45902.57</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14029,7 +14029,7 @@
         <v>45677.46724537037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45903.54355324074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45621.59472222222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45621.59979166667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45824.47145833333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>45824.36542824074</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>45252.8665625</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>45196.44100694444</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>45905.44967592593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>45905.46538194444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>45824</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>45659.6991087963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>45908.58668981482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         <v>44579.50421296297</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>45915.47401620371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14884,7 +14884,7 @@
         <v>44939</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14941,7 +14941,7 @@
         <v>45041.628125</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>45747.4102199074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>45271.53695601852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>45350.42491898148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>45922</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>45923.34297453704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>45922</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>45922.34298611111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>45155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>45922.34819444444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>45629.65530092592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>45764</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>45925.59826388889</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15682,7 +15682,7 @@
         <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45246.4997337963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>45154</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>45681.37034722222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45929.6434375</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15972,7 +15972,7 @@
         <v>45927</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16029,7 +16029,7 @@
         <v>45552.32608796296</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>45834.38971064815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>45926.33585648148</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         <v>45834.47128472223</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16257,7 +16257,7 @@
         <v>45926.3371412037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16314,7 +16314,7 @@
         <v>45929.6240625</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16371,7 +16371,7 @@
         <v>45926.33401620371</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16428,7 +16428,7 @@
         <v>45929</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>45596.6846875</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>45929.61418981481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>45838</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>45929.76333333334</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>45837</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>45839.40396990741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>45933.55741898148</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>45932.61694444445</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>45839</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>45839.40773148148</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45936.44983796297</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>45935</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>45935</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17226,7 +17226,7 @@
         <v>45490.46703703704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17283,7 +17283,7 @@
         <v>44839.62133101852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         <v>45937.34498842592</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         <v>45293</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
         <v>45842.47947916666</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17511,7 +17511,7 @@
         <v>45820.41474537037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>45170</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>45842.53192129629</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45942</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45943.5865162037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>45842.54001157408</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45842.55113425926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17910,7 +17910,7 @@
         <v>45673</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17967,7 +17967,7 @@
         <v>45390.46651620371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18024,7 +18024,7 @@
         <v>45945.53465277778</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18081,7 +18081,7 @@
         <v>45947.58571759259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
         <v>45946.8708449074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18200,7 +18200,7 @@
         <v>45946.59853009259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18257,7 +18257,7 @@
         <v>45946.42431712963</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>45387.48319444444</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>45597</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45168.68554398148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>45951.53068287037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45951.53512731481</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45951.55111111111</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>45951.56857638889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>45635.60556712963</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>45522</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>45949</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>45951.55238425926</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>45673.37917824074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>45951.52353009259</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>45951.53870370371</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>45635.61482638889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45952.55336805555</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>44585</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45698.31922453704</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45334.63966435185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19402,7 +19402,7 @@
         <v>45104.35747685185</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45106</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45872</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45872</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45954.35903935185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         <v>45954.36815972222</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19749,7 +19749,7 @@
         <v>44469</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>45958.63921296296</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>45872</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45874.44050925926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>45873.53761574074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45874.44613425926</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>45286</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>45874.40502314815</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>45196.55233796296</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>45709.47435185185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>45728.5480787037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>45660</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45880.47754629629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45880.47399305556</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45880.47231481481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45321.55988425926</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45722</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45534</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>45971.48189814815</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>45972.56716435185</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>45174</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>45757.57973379629</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>45972.86952546296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21060,7 +21060,7 @@
         <v>45973.66542824074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>44522</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21174,7 +21174,7 @@
         <v>45972.88298611111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>45184</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>45887.46581018518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>45974.43372685185</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21407,7 +21407,7 @@
         <v>45026</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21464,7 +21464,7 @@
         <v>45978.63587962963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>44946</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>45980.57719907408</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44572.38181712963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21692,7 +21692,7 @@
         <v>45985.37597222222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21749,7 +21749,7 @@
         <v>45982.3900462963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21811,7 +21811,7 @@
         <v>45985.63699074074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21868,7 +21868,7 @@
         <v>45369.35518518519</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21925,7 +21925,7 @@
         <v>45630.5583912037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21982,7 +21982,7 @@
         <v>45987.30810185185</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22039,7 +22039,7 @@
         <v>46027.62056712963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         <v>46027.63243055555</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>45538.54412037037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>45987.46575231481</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>45987.46042824074</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
         <v>45196</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>44925</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>45739.80998842593</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22495,7 +22495,7 @@
         <v>46029</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22552,7 +22552,7 @@
         <v>45273.460625</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22609,7 +22609,7 @@
         <v>46029</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>46029.58729166666</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>46029.56256944445</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         <v>44846</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>46031.64695601852</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>46034.60543981481</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>45544.52134259259</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>46034.59936342593</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23070,7 +23070,7 @@
         <v>45454.66947916667</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23127,7 +23127,7 @@
         <v>45454.67317129629</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23184,7 +23184,7 @@
         <v>45311</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23241,7 +23241,7 @@
         <v>45048</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>45698</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23355,7 +23355,7 @@
         <v>45722</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23412,7 +23412,7 @@
         <v>45719.63101851852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23469,7 +23469,7 @@
         <v>44867</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44900.31049768518</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>46037.47726851852</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
         <v>44327</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23697,7 +23697,7 @@
         <v>44807.62668981482</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23754,7 +23754,7 @@
         <v>46038.56106481481</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23811,7 +23811,7 @@
         <v>46038.5577662037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23868,7 +23868,7 @@
         <v>44944</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>45756.39622685185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23982,7 +23982,7 @@
         <v>45303.58416666667</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24039,7 +24039,7 @@
         <v>45303.60452546296</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24096,7 +24096,7 @@
         <v>45595</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>45673</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24210,7 +24210,7 @@
         <v>45061</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         <v>44467.68811342592</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24324,7 +24324,7 @@
         <v>45469.40561342592</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>46038.60314814815</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>45267</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24500,7 +24500,7 @@
         <v>45061</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24557,7 +24557,7 @@
         <v>45999.49892361111</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24614,7 +24614,7 @@
         <v>46039.53040509259</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24671,7 +24671,7 @@
         <v>45265.66319444445</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24728,7 +24728,7 @@
         <v>45085</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>45268.58481481481</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>46000.54090277778</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44538.58373842593</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>46042.67767361111</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>46000.66969907407</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>46000.55739583333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45566.5515625</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>45036.35840277778</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>46044.70083333334</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>46044.70748842593</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>46044.71488425926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>45281</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>45303</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>45303.60302083333</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>45599</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>46044.53601851852</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>46044.72129629629</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>44292</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>45635.59540509259</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>46044.5521875</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         <v>45400.65037037037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25982,7 +25982,7 @@
         <v>46003.45106481481</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26039,7 +26039,7 @@
         <v>46044.55604166666</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26096,7 +26096,7 @@
         <v>46044.69506944445</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26153,7 +26153,7 @@
         <v>46044.5205324074</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26210,7 +26210,7 @@
         <v>44285.35993055555</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26267,7 +26267,7 @@
         <v>45523</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26324,7 +26324,7 @@
         <v>45181.73866898148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>44426</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45190</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44285</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45272</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>46008.68878472222</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>46008.82458333333</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45673.38386574074</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45237.33038194444</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>44929.69923611111</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45015.70453703704</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45655.43255787037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45621.59697916666</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>44585.64229166666</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>46011.50260416666</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27184,7 +27184,7 @@
         <v>45236.52512731482</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27241,7 +27241,7 @@
         <v>45236.5352199074</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
         <v>46013.34810185185</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27355,7 +27355,7 @@
         <v>46013.34900462963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27412,7 +27412,7 @@
         <v>45761.42684027777</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27469,7 +27469,7 @@
         <v>44719.98341435185</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27526,7 +27526,7 @@
         <v>45387.47238425926</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44830</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44725</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27697,7 +27697,7 @@
         <v>44725.42993055555</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27754,7 +27754,7 @@
         <v>45603.46233796296</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         <v>44544.79592592592</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27868,7 +27868,7 @@
         <v>46058.36825231482</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44972.69076388889</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44969</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>45273.5737962963</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28101,7 +28101,7 @@
         <v>45374.72565972222</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>45525.63168981481</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45030</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>45355.51329861111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>45102</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>45023</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28443,7 +28443,7 @@
         <v>45085</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
         <v>45197</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
         <v>44573</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28634,7 +28634,7 @@
         <v>44441</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28691,7 +28691,7 @@
         <v>45279</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44858.52567129629</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>44438</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44460</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>45772.50458333334</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>45026</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45239</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>44799.45141203704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>45597</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>45267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>45400.83571759259</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>45722</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44872</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>45075.56796296296</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44832</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>45260.62027777778</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29603,7 +29603,7 @@
         <v>44908</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>45384.91399305555</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29717,7 +29717,7 @@
         <v>45469.76627314815</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44418</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44434</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44434</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>45570.45927083334</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>45272.47856481482</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44601</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>45575.45644675926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44591.90067129629</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>45309.44375</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45387.48722222223</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30349,7 +30349,7 @@
         <v>45029</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>45259.35402777778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>45278</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>45628.87296296296</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>45628.87668981482</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>45659.69072916666</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         <v>44817</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30748,7 +30748,7 @@
         <v>45271.4730787037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30805,7 +30805,7 @@
         <v>44890</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>44651.87236111111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>45035</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30981,7 +30981,7 @@
         <v>45596.67886574074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31038,7 +31038,7 @@
         <v>45635.59962962963</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31095,7 +31095,7 @@
         <v>45463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31152,7 +31152,7 @@
         <v>45450.60342592592</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>44293.554375</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>44841.49253472222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31323,7 +31323,7 @@
         <v>45531</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44455</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         <v>45538.70457175926</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31494,7 +31494,7 @@
         <v>45231</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31551,7 +31551,7 @@
         <v>45392.47069444445</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31608,7 +31608,7 @@
         <v>44306</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31665,7 +31665,7 @@
         <v>45155</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31722,7 +31722,7 @@
         <v>45063</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44378.73386574074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>45544.57728009259</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44908</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31955,7 +31955,7 @@
         <v>45440</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32012,7 +32012,7 @@
         <v>44698</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32069,7 +32069,7 @@
         <v>45154</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32126,7 +32126,7 @@
         <v>45716.47998842593</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32183,7 +32183,7 @@
         <v>45741.69476851852</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32240,7 +32240,7 @@
         <v>44439.36196759259</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32297,7 +32297,7 @@
         <v>44964</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32354,7 +32354,7 @@
         <v>44573.62219907407</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32411,7 +32411,7 @@
         <v>45621.60280092592</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32468,7 +32468,7 @@
         <v>44879</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32525,7 +32525,7 @@
         <v>45170</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32582,7 +32582,7 @@
         <v>45692.6357175926</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32639,7 +32639,7 @@
         <v>44613</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32696,7 +32696,7 @@
         <v>44613</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32753,7 +32753,7 @@
         <v>44897.47668981482</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
         <v>45209.64253472222</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32867,7 +32867,7 @@
         <v>45168.69461805555</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32924,7 +32924,7 @@
         <v>45153</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         <v>45371.46417824074</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33038,7 +33038,7 @@
         <v>45168.7025462963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33095,7 +33095,7 @@
         <v>45571</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33152,7 +33152,7 @@
         <v>44834.43748842592</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33209,7 +33209,7 @@
         <v>44488</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>45522</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33323,7 +33323,7 @@
         <v>44490.46706018518</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>45754.37994212963</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>45754.38363425926</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33494,7 +33494,7 @@
         <v>45415.58402777778</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33551,7 +33551,7 @@
         <v>45777.54398148148</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33608,7 +33608,7 @@
         <v>45589.57429398148</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33665,7 +33665,7 @@
         <v>45748.4649074074</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33722,7 +33722,7 @@
         <v>45785.60768518518</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33779,7 +33779,7 @@
         <v>45072</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33836,7 +33836,7 @@
         <v>45789.48394675926</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33893,7 +33893,7 @@
         <v>45789.4871412037</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>45726.70016203704</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34007,7 +34007,7 @@
         <v>45719.5325</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34064,7 +34064,7 @@
         <v>45791.36958333333</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34121,7 +34121,7 @@
         <v>45737.50302083333</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>45791.40295138889</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34235,7 +34235,7 @@
         <v>45737.54762731482</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34292,7 +34292,7 @@
         <v>45743.58711805556</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34349,7 +34349,7 @@
         <v>45716</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34406,7 +34406,7 @@
         <v>45362</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34468,7 +34468,7 @@
         <v>45551.64898148148</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
         <v>44879</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34582,7 +34582,7 @@
         <v>45301</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>45084</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34696,7 +34696,7 @@
         <v>45743.47871527778</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34753,7 +34753,7 @@
         <v>45728.52953703704</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34810,7 +34810,7 @@
         <v>45392.48451388889</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>

--- a/Översikt TANUM.xlsx
+++ b/Översikt TANUM.xlsx
@@ -575,7 +575,7 @@
         <v>45217</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45156.51152777778</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>45530.6829050926</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44341.91210648148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>45000</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>45637.60655092593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45799</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>44506</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>44692</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>45008</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>45008</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>45000</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>45135</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45160.50649305555</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>44644</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>45196</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>45008</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         <v>45761</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>44361</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44511</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         <v>45769.59717592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45889.55650462963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>44879</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>45362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>45722</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45649</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45866.60317129629</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>45713</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>45317</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>45274.59327546296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>45247</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>45685</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>44250</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44250</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44462</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44285</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44506</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44446</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44544.86368055556</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44552</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44285</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>44506</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>44370.85549768519</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44400</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>44377</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44601</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>44573</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>44573.46288194445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>44452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>44470</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>44327</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>44596</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>44573</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>44316</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>44501.48246527778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>44392.69578703704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44313</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44327</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>44862.736875</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>44377</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44392.70053240741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>44285</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>44361.44</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>44377</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>44722</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>44470</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>44295</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44395</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>44389</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>44459</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>44837.66451388889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>44735</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>44563</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>44506</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44506</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>44506</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44573</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44791.66712962963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>44802</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>44802.52940972222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>44731.56203703704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>44525</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>44621.57050925926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>44438</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>44445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>44318</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>44270.6653125</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44270</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>44470</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>44463</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44802.52351851852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>44369</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>44285</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>44830.53532407407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>44333.82861111111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>44593.60039351852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>44417</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>44361</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>44725</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>44484.82210648148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>44344</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44817</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>44862</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44395</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>44378.75256944444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>44386.3971875</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44292</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44327</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44327</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44417</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44470</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>44487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44506</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44319</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>44318</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>44725</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>45273</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45739</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44382</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>45293</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>44999.39836805555</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>45488.48725694444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>44490</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>45649</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>44954</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>44890</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>45208</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45159.85258101852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>45261.38917824074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>45005.5162037037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>45755</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>45265.66866898148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>45355.39510416667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>45102</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>45686.8584375</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44997.45451388889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44606</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44544.86215277778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44526.45810185185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44496.59633101852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>45579.62533564815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>45469.75761574074</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>45085</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>45728.56789351852</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>45506.41831018519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>45506.43997685185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>45580.56090277778</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>45371.45964120371</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         <v>45209</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
         <v>45210</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10450,7 +10450,7 @@
         <v>45522</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>44514.44543981482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10564,7 +10564,7 @@
         <v>45384.90856481482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>44887</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10678,7 +10678,7 @@
         <v>45659.70703703703</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>45168.44300925926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>45425.25521990741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>45425.28621527777</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>45280.46763888889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>45637</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>44799.68061342592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>45568.58287037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>44792</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45744.58045138889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>44739</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>45145.62370370371</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>45515</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>45300.3849537037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>45162.49694444444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>44306.52166666667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>44862</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>44872</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>45446.79673611111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45645.6778125</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>45645.68386574074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>45002.36559027778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>44627.36609953704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>45239</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>45516.4722800926</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44552.73019675926</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>45819.52787037037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44867</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45820</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>45820.65557870371</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45211</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45355.66673611111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45824.47145833333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45824.36542824074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45187</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>45824</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>45433.67465277778</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44318</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>45889.5378587963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>45677.46724537037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>45889.54530092593</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45889.46177083333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>45621.59472222222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45621.59979166667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45890</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45252.8665625</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45196.44100694444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44508</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45891</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>45659.6991087963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45895.64790509259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>45895</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>45895</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44579.50421296297</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>45895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>45713.6675</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44939</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>45041.628125</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>45901.52666666666</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>45544.52680555556</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>45747.4102199074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14165,7 +14165,7 @@
         <v>45834.38971064815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14222,7 +14222,7 @@
         <v>45834.47128472223</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45903.54369212963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>45902.57</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>45838</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>45837</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14507,7 +14507,7 @@
         <v>45839.40396990741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>45903.54355324074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14621,7 +14621,7 @@
         <v>45271.53695601852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>45350.42491898148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14735,7 +14735,7 @@
         <v>45839</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14792,7 +14792,7 @@
         <v>45155</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14849,7 +14849,7 @@
         <v>45905.44967592593</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
         <v>45629.65530092592</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>45905.46538194444</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>45839.40773148148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45908.58668981482</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15134,7 +15134,7 @@
         <v>45842.47947916666</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>45820.41474537037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>45842.53192129629</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15305,7 +15305,7 @@
         <v>45107</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15362,7 +15362,7 @@
         <v>45246.4997337963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15419,7 +15419,7 @@
         <v>45154</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>45681.37034722222</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>45842.54001157408</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>45842.55113425926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15647,7 +15647,7 @@
         <v>45915.47401620371</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>45552.32608796296</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>45596.6846875</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>45522</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>45922</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>45923.34297453704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
         <v>45922</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
         <v>45922.34298611111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16103,7 +16103,7 @@
         <v>45922.34819444444</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16160,7 +16160,7 @@
         <v>45764</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45490.46703703704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16274,7 +16274,7 @@
         <v>44839.62133101852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16331,7 +16331,7 @@
         <v>45925.59826388889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
         <v>45293</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>45170</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>45929.6434375</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>45872</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>45872</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>45927</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>45926.33585648148</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>45926.3371412037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>45929.6240625</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>45926.33401620371</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>45929</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>45929.61418981481</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>45872</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>45874.44050925926</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>45929.76333333334</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>45873.53761574074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>45874.44613425926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>45874.40502314815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>45673</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>45933.55741898148</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>45932.61694444445</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>45390.46651620371</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>45709.47435185185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>45880.47754629629</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>45387.48319444444</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>45597</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>45936.44983796297</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45935</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>45168.68554398148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>45880.47399305556</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>45880.47231481481</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>45722</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>45935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>45635.60556712963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18331,7 +18331,7 @@
         <v>45673.37917824074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>45635.61482638889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>45937.34498842592</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44585</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>45698.31922453704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         <v>45334.63966435185</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         <v>45104.35747685185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45106</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45942</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45943.5865162037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45887.46581018518</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44469</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45945.53465277778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45947.58571759259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45286</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45196.55233796296</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45946.8708449074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>45946.59853009259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19367,7 +19367,7 @@
         <v>45946.42431712963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>45951.53068287037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>45951.53512731481</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>45951.55111111111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45951.56857638889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>45949</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>45951.55238425926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>45951.52353009259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         <v>45951.53870370371</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19885,7 +19885,7 @@
         <v>45728.5480787037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19942,7 +19942,7 @@
         <v>45660</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19999,7 +19999,7 @@
         <v>45952.55336805555</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>45321.55988425926</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>45954.35903935185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>45954.36815972222</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>45958.63921296296</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20284,7 +20284,7 @@
         <v>45174</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>45757.57973379629</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20398,7 +20398,7 @@
         <v>44522</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20455,7 +20455,7 @@
         <v>45184</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20512,7 +20512,7 @@
         <v>45026</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
         <v>44946</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         <v>45971.48189814815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         <v>44572.38181712963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20740,7 +20740,7 @@
         <v>45972.56716435185</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20797,7 +20797,7 @@
         <v>45369.35518518519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>45630.5583912037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20911,7 +20911,7 @@
         <v>45972.86952546296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20968,7 +20968,7 @@
         <v>45973.66542824074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>45972.88298611111</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>45538.54412037037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>45974.43372685185</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45196</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>44925</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45978.63587962963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>45739.80998842593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>45980.57719907408</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45273.460625</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>45985.37597222222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21657,7 +21657,7 @@
         <v>45982.3900462963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45985.63699074074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45544.52134259259</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45987.30810185185</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21890,7 +21890,7 @@
         <v>45454.66947916667</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21947,7 +21947,7 @@
         <v>45454.67317129629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22004,7 +22004,7 @@
         <v>45311</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22061,7 +22061,7 @@
         <v>45987.46575231481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>45987.46042824074</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>45048</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>45698</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>45722</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>45719.63101851852</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>44867</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22460,7 +22460,7 @@
         <v>46034.60543981481</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22517,7 +22517,7 @@
         <v>44900.31049768518</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>46034.59936342593</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22631,7 +22631,7 @@
         <v>44327</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
         <v>44807.62668981482</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22745,7 +22745,7 @@
         <v>44944</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22802,7 +22802,7 @@
         <v>45756.39622685185</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22859,7 +22859,7 @@
         <v>45303.58416666667</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>45303.60452546296</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>45595</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>45673</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23087,7 +23087,7 @@
         <v>45061</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23144,7 +23144,7 @@
         <v>44467.68811342592</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23201,7 +23201,7 @@
         <v>45469.40561342592</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>46037.47726851852</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>45267</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>45061</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>46038.56106481481</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>46038.5577662037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>45265.66319444445</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>45268.58481481481</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44538.58373842593</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>46038.60314814815</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>45999.49892361111</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>46039.53040509259</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23890,7 +23890,7 @@
         <v>45085</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23947,7 +23947,7 @@
         <v>46000.54090277778</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>45566.5515625</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>45036.35840277778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24118,7 +24118,7 @@
         <v>46042.67767361111</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24175,7 +24175,7 @@
         <v>45281</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>46000.66969907407</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>46000.55739583333</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24346,7 +24346,7 @@
         <v>45303</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24403,7 +24403,7 @@
         <v>45303.60302083333</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
         <v>45599</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24517,7 +24517,7 @@
         <v>44292</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24574,7 +24574,7 @@
         <v>45635.59540509259</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24631,7 +24631,7 @@
         <v>45400.65037037037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         <v>46044.70083333334</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24745,7 +24745,7 @@
         <v>46044.70748842593</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24802,7 +24802,7 @@
         <v>46044.71488425926</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         <v>44285.35993055555</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>46044.53601851852</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24973,7 +24973,7 @@
         <v>46044.72129629629</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
         <v>46044.5521875</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>45523</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>46003.45106481481</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>46044.55604166666</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>46044.69506944445</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>46044.5205324074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>45181.73866898148</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>44426</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25491,7 +25491,7 @@
         <v>45190</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25548,7 +25548,7 @@
         <v>44285</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>45272</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45673.38386574074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         <v>45237.33038194444</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25776,7 +25776,7 @@
         <v>44929.69923611111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45015.70453703704</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>45655.43255787037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>45621.59697916666</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44585.64229166666</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>45236.52512731482</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>45236.5352199074</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>46008.68878472222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>46008.82458333333</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26289,7 +26289,7 @@
         <v>45761.42684027777</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>46011.50260416666</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>46013.34810185185</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26460,7 +26460,7 @@
         <v>44719.98341435185</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26517,7 +26517,7 @@
         <v>46013.34900462963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26574,7 +26574,7 @@
         <v>45387.47238425926</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26631,7 +26631,7 @@
         <v>44830</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44725</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44725.42993055555</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>45603.46233796296</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26859,7 +26859,7 @@
         <v>44544.79592592592</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26916,7 +26916,7 @@
         <v>46058.36825231482</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44972.69076388889</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44969</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>45534</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27149,7 +27149,7 @@
         <v>45273.5737962963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>45374.72565972222</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45525.63168981481</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>45030</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45355.51329861111</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45102</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>46069.59246527778</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>45023</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>46027.63243055555</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>45197</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27796,7 +27796,7 @@
         <v>44573</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27853,7 +27853,7 @@
         <v>46027.62056712963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27910,7 +27910,7 @@
         <v>44441</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27967,7 +27967,7 @@
         <v>45279</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28024,7 +28024,7 @@
         <v>46071.4630787037</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>46071.46969907408</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>46029</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>44858.52567129629</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44438</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>44460</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45772.50458333334</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45026</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>46029.58729166666</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>46029</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>46029.56256944445</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>45239</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28708,7 +28708,7 @@
         <v>44799.45141203704</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28765,7 +28765,7 @@
         <v>46070.56728009259</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>46070.56267361111</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28879,7 +28879,7 @@
         <v>45597</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>45267</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28993,7 +28993,7 @@
         <v>45400.83571759259</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>46031.64695601852</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29112,7 +29112,7 @@
         <v>45722</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>44872</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29226,7 +29226,7 @@
         <v>45075.56796296296</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29283,7 +29283,7 @@
         <v>44832</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29340,7 +29340,7 @@
         <v>45260.62027777778</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>44908</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29454,7 +29454,7 @@
         <v>45384.91399305555</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29511,7 +29511,7 @@
         <v>45469.76627314815</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29568,7 +29568,7 @@
         <v>44418</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29625,7 +29625,7 @@
         <v>44434</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29682,7 +29682,7 @@
         <v>44434</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45570.45927083334</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         <v>45272.47856481482</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         <v>44601</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         <v>45575.45644675926</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29972,7 +29972,7 @@
         <v>44591.90067129629</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30029,7 +30029,7 @@
         <v>45309.44375</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>45387.48722222223</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30143,7 +30143,7 @@
         <v>45029</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
         <v>45259.35402777778</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30257,7 +30257,7 @@
         <v>45278</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30314,7 +30314,7 @@
         <v>45628.87296296296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30371,7 +30371,7 @@
         <v>45628.87668981482</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30428,7 +30428,7 @@
         <v>45659.69072916666</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30485,7 +30485,7 @@
         <v>44817</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30542,7 +30542,7 @@
         <v>45271.4730787037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30599,7 +30599,7 @@
         <v>44890</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30656,7 +30656,7 @@
         <v>44651.87236111111</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30713,7 +30713,7 @@
         <v>45035</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30775,7 +30775,7 @@
         <v>45596.67886574074</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         <v>45635.59962962963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30889,7 +30889,7 @@
         <v>45463</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         <v>45450.60342592592</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31003,7 +31003,7 @@
         <v>44293.554375</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31060,7 +31060,7 @@
         <v>44841.49253472222</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31117,7 +31117,7 @@
         <v>45531</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31174,7 +31174,7 @@
         <v>44455</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31231,7 +31231,7 @@
         <v>45538.70457175926</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31288,7 +31288,7 @@
         <v>45231</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31345,7 +31345,7 @@
         <v>45392.47069444445</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
         <v>44306</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31459,7 +31459,7 @@
         <v>45155</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31516,7 +31516,7 @@
         <v>45063</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31578,7 +31578,7 @@
         <v>44378.73386574074</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31635,7 +31635,7 @@
         <v>45544.57728009259</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31692,7 +31692,7 @@
         <v>44908</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31749,7 +31749,7 @@
         <v>45440</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31806,7 +31806,7 @@
         <v>44698</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31863,7 +31863,7 @@
         <v>45154</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31920,7 +31920,7 @@
         <v>45716.47998842593</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31977,7 +31977,7 @@
         <v>45741.69476851852</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32034,7 +32034,7 @@
         <v>44439.36196759259</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32091,7 +32091,7 @@
         <v>44964</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>44573.62219907407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>45621.60280092592</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>44879</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32319,7 +32319,7 @@
         <v>45170</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32376,7 +32376,7 @@
         <v>45692.6357175926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>44613</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32490,7 +32490,7 @@
         <v>44613</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32547,7 +32547,7 @@
         <v>44897.47668981482</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32604,7 +32604,7 @@
         <v>45209.64253472222</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         <v>45168.69461805555</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32718,7 +32718,7 @@
         <v>45153</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32775,7 +32775,7 @@
         <v>45371.46417824074</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32832,7 +32832,7 @@
         <v>45168.7025462963</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32889,7 +32889,7 @@
         <v>45571</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         <v>44834.43748842592</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33003,7 +33003,7 @@
         <v>44488</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33060,7 +33060,7 @@
         <v>45522</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33117,7 +33117,7 @@
         <v>44490.46706018518</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33174,7 +33174,7 @@
         <v>45754.37994212963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>45754.38363425926</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33288,7 +33288,7 @@
         <v>45415.58402777778</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33345,7 +33345,7 @@
         <v>45777.54398148148</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33402,7 +33402,7 @@
         <v>45589.57429398148</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33459,7 +33459,7 @@
         <v>45748.4649074074</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33516,7 +33516,7 @@
         <v>45785.60768518518</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>45072</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>45789.48394675926</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>45789.4871412037</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33744,7 +33744,7 @@
         <v>45726.70016203704</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33801,7 +33801,7 @@
         <v>45719.5325</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33858,7 +33858,7 @@
         <v>45791.36958333333</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33915,7 +33915,7 @@
         <v>45737.50302083333</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33972,7 +33972,7 @@
         <v>45791.40295138889</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>45737.54762731482</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34086,7 +34086,7 @@
         <v>45743.58711805556</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34143,7 +34143,7 @@
         <v>45716</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34200,7 +34200,7 @@
         <v>45362</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34262,7 +34262,7 @@
         <v>45551.64898148148</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34319,7 +34319,7 @@
         <v>44879</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34376,7 +34376,7 @@
         <v>45301</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>45084</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>45743.47871527778</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34547,7 +34547,7 @@
         <v>45728.52953703704</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34604,7 +34604,7 @@
         <v>45392.48451388889</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34661,7 +34661,7 @@
         <v>45805.58758101852</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34718,7 +34718,7 @@
         <v>45805.58908564815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34775,7 +34775,7 @@
         <v>45593.58693287037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34832,7 +34832,7 @@
         <v>45324</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34889,7 +34889,7 @@
         <v>45753.56577546296</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
